--- a/item.xlsx
+++ b/item.xlsx
@@ -34,10 +34,6 @@
     <t>CS</t>
   </si>
   <si>
-    <t>DESC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -149,13 +145,17 @@
   </si>
   <si>
     <t>s_item_14</t>
+  </si>
+  <si>
+    <t>资源路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -500,22 +500,22 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:D19"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
     <col min="1" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="20.36328125" customWidth="1"/>
     <col min="4" max="4" width="37.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -524,27 +524,27 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -561,256 +561,256 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="E4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E8">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E9">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E10">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E11">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E13">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E14">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E15">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E16">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17">
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E17">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18">
         <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E19">
         <v>2</v>
